--- a/datasets/1e - Exports - crop year.xlsx
+++ b/datasets/1e - Exports - crop year.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98050EC2-7C90-409C-AA5E-7345438BD698}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E60C1BA-9930-4AB7-A66D-458E608ED91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Exports" sheetId="1" r:id="rId1"/>
@@ -297,9 +297,6 @@
     <t>Lao People's Democratic Republic</t>
   </si>
   <si>
-    <t>Viet Nam</t>
-  </si>
-  <si>
     <t>2018/19</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Vietnam</t>
   </si>
 </sst>
 </file>
@@ -724,10 +724,10 @@
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Q11" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="Q38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -757,10 +757,10 @@
     </row>
     <row r="4" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>3</v>
@@ -847,13 +847,13 @@
         <v>81</v>
       </c>
       <c r="AE4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="AF4" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="AF4" s="2" t="s">
-        <v>87</v>
-      </c>
       <c r="AG4" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -861,7 +861,7 @@
         <v>27</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C5" s="7">
         <v>79.344999999999999</v>
@@ -960,10 +960,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="7">
         <v>111.977</v>
@@ -1065,7 +1065,7 @@
         <v>28</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C7" s="7">
         <v>17862.6286</v>
@@ -1167,7 +1167,7 @@
         <v>29</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C8" s="7">
         <v>412.39299999999997</v>
@@ -1269,7 +1269,7 @@
         <v>30</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C9" s="7">
         <v>1627.778</v>
@@ -1371,7 +1371,7 @@
         <v>31</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7">
         <v>6720.3829999999998</v>
@@ -1473,7 +1473,7 @@
         <v>32</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C11" s="7">
         <v>726.447</v>
@@ -1575,7 +1575,7 @@
         <v>33</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C12" s="7">
         <v>103.628</v>
@@ -1677,7 +1677,7 @@
         <v>34</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="7">
         <v>1012.841</v>
@@ -1779,7 +1779,7 @@
         <v>35</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C14" s="7">
         <v>168.62700000000001</v>
@@ -1881,7 +1881,7 @@
         <v>36</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C15" s="7">
         <v>1003.6319999999999</v>
@@ -1983,7 +1983,7 @@
         <v>37</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C16" s="7">
         <v>658.875</v>
@@ -2085,7 +2085,7 @@
         <v>38</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2187,7 +2187,7 @@
         <v>39</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C18" s="7">
         <v>285.70100000000002</v>
@@ -2289,7 +2289,7 @@
         <v>82</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C19" s="7">
         <v>0.92400000000000004</v>
@@ -2391,7 +2391,7 @@
         <v>40</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C20" s="7">
         <v>177.91200000000001</v>
@@ -2493,7 +2493,7 @@
         <v>41</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C21" s="7">
         <v>480.06200000000001</v>
@@ -2595,7 +2595,7 @@
         <v>42</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C22" s="7">
         <v>189.88</v>
@@ -2697,7 +2697,7 @@
         <v>43</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="7">
         <v>132.63200000000001</v>
@@ -2799,7 +2799,7 @@
         <v>44</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C24" s="7">
         <v>969.726</v>
@@ -2901,7 +2901,7 @@
         <v>45</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="7">
         <v>22.186</v>
@@ -3003,7 +3003,7 @@
         <v>46</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C26" s="7">
         <v>1857.184</v>
@@ -3105,7 +3105,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C27" s="7">
         <v>143.274</v>
@@ -3207,7 +3207,7 @@
         <v>48</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C28" s="7">
         <v>12212.387000000001</v>
@@ -3309,7 +3309,7 @@
         <v>49</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C29" s="7">
         <v>2409.8850000000002</v>
@@ -3411,7 +3411,7 @@
         <v>50</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C30" s="7">
         <v>4334.3630000000003</v>
@@ -3513,7 +3513,7 @@
         <v>83</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C31" s="7">
         <v>1479.296</v>
@@ -3615,7 +3615,7 @@
         <v>51</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C32" s="7">
         <v>2017.5640000000001</v>
@@ -3717,7 +3717,7 @@
         <v>52</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C33" s="7">
         <v>1.536</v>
@@ -3819,7 +3819,7 @@
         <v>53</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C34" s="7">
         <v>849.45100000000002</v>
@@ -3921,7 +3921,7 @@
         <v>54</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C35" s="7">
         <v>1.708</v>
@@ -4023,7 +4023,7 @@
         <v>55</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C36" s="7">
         <v>14.855</v>
@@ -4125,7 +4125,7 @@
         <v>56</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C37" s="7">
         <v>2802.9720000000002</v>
@@ -4227,7 +4227,7 @@
         <v>57</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C38" s="7">
         <v>54.46</v>
@@ -4329,7 +4329,7 @@
         <v>58</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C39" s="7">
         <v>0.36649999999999999</v>
@@ -4431,7 +4431,7 @@
         <v>59</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C40" s="7">
         <v>1427.002</v>
@@ -4533,7 +4533,7 @@
         <v>60</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41" s="7">
         <v>1510.6869999999999</v>
@@ -4635,7 +4635,7 @@
         <v>61</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C42" s="7">
         <v>15.574</v>
@@ -4737,7 +4737,7 @@
         <v>62</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C43" s="7">
         <v>1649.4010000000001</v>
@@ -4839,7 +4839,7 @@
         <v>84</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C44" s="7">
         <v>98.332999999999998</v>
@@ -4941,7 +4941,7 @@
         <v>63</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -5043,7 +5043,7 @@
         <v>64</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C46" s="7">
         <v>3526.2449999999999</v>
@@ -5145,7 +5145,7 @@
         <v>65</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C47" s="7">
         <v>3.5499999999999997E-2</v>
@@ -5247,7 +5247,7 @@
         <v>66</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="7">
         <v>419.916</v>
@@ -5349,7 +5349,7 @@
         <v>67</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C49" s="7">
         <v>1.69</v>
@@ -5451,7 +5451,7 @@
         <v>68</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C50" s="7">
         <v>129.98699999999999</v>
@@ -5553,7 +5553,7 @@
         <v>69</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C51" s="7">
         <v>86.783000000000001</v>
@@ -5655,7 +5655,7 @@
         <v>70</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C52" s="7">
         <v>33.203000000000003</v>
@@ -5757,7 +5757,7 @@
         <v>71</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C53" s="7">
         <v>433.017</v>
@@ -5859,7 +5859,7 @@
         <v>72</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C54" s="10">
         <v>180.80799999999999</v>
@@ -5961,7 +5961,7 @@
         <v>73</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="10">
         <v>11.581</v>
@@ -6063,7 +6063,7 @@
         <v>74</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="10">
         <v>2085.009</v>
@@ -6165,7 +6165,7 @@
         <v>75</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="10">
         <v>132.08699999999999</v>
@@ -6264,10 +6264,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="10">
         <v>1146.288</v>
@@ -6369,7 +6369,7 @@
         <v>76</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="10">
         <v>72.500200000000007</v>

--- a/datasets/1e - Exports - crop year.xlsx
+++ b/datasets/1e - Exports - crop year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E60C1BA-9930-4AB7-A66D-458E608ED91F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E292053C-0665-47AB-B473-1A2A65E7906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -51,78 +51,6 @@
     <t>© International Coffee Organization</t>
   </si>
   <si>
-    <t>1990/91</t>
-  </si>
-  <si>
-    <t>1991/92</t>
-  </si>
-  <si>
-    <t>1992/93</t>
-  </si>
-  <si>
-    <t>1993/94</t>
-  </si>
-  <si>
-    <t>1994/95</t>
-  </si>
-  <si>
-    <t>1995/96</t>
-  </si>
-  <si>
-    <t>1996/97</t>
-  </si>
-  <si>
-    <t>1997/98</t>
-  </si>
-  <si>
-    <t>1998/99</t>
-  </si>
-  <si>
-    <t>1999/00</t>
-  </si>
-  <si>
-    <t>2000/01</t>
-  </si>
-  <si>
-    <t>2001/02</t>
-  </si>
-  <si>
-    <t>2002/03</t>
-  </si>
-  <si>
-    <t>2003/04</t>
-  </si>
-  <si>
-    <t>2004/05</t>
-  </si>
-  <si>
-    <t>2005/06</t>
-  </si>
-  <si>
-    <t>2006/07</t>
-  </si>
-  <si>
-    <t>2007/08</t>
-  </si>
-  <si>
-    <t>2008/09</t>
-  </si>
-  <si>
-    <t>2009/10</t>
-  </si>
-  <si>
-    <t>2010/11</t>
-  </si>
-  <si>
-    <t>2011/12</t>
-  </si>
-  <si>
-    <t>2012/13</t>
-  </si>
-  <si>
-    <t>2013/14</t>
-  </si>
-  <si>
     <t>Angola</t>
   </si>
   <si>
@@ -276,18 +204,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>2014/15</t>
-  </si>
-  <si>
-    <t>2015/16</t>
-  </si>
-  <si>
-    <t>2016/17</t>
-  </si>
-  <si>
-    <t>2017/18</t>
-  </si>
-  <si>
     <t>Congo</t>
   </si>
   <si>
@@ -297,12 +213,6 @@
     <t>Lao People's Democratic Republic</t>
   </si>
   <si>
-    <t>2018/19</t>
-  </si>
-  <si>
-    <t>2019/20</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -325,6 +235,96 @@
   </si>
   <si>
     <t>Vietnam</t>
+  </si>
+  <si>
+    <t>1990</t>
+  </si>
+  <si>
+    <t>1991</t>
+  </si>
+  <si>
+    <t>1992</t>
+  </si>
+  <si>
+    <t>1993</t>
+  </si>
+  <si>
+    <t>1994</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>1996</t>
+  </si>
+  <si>
+    <t>1997</t>
+  </si>
+  <si>
+    <t>1998</t>
+  </si>
+  <si>
+    <t>1999</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>2001</t>
+  </si>
+  <si>
+    <t>2002</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>2004</t>
+  </si>
+  <si>
+    <t>2005</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>2008</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
   </si>
 </sst>
 </file>
@@ -397,7 +397,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -440,6 +440,9 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -724,10 +727,10 @@
   <dimension ref="A1:AG63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="70" workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="Q38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="A59" sqref="A59"/>
+      <selection pane="bottomRight" activeCell="C4" sqref="C4:AF4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -757,111 +760,111 @@
     </row>
     <row r="4" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>65</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>67</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="G4" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>71</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="K4" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="L4" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="M4" s="17" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>76</v>
+      </c>
+      <c r="O4" s="17" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" s="17" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q4" s="17" t="s">
+        <v>79</v>
+      </c>
+      <c r="R4" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="S4" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="T4" s="17" t="s">
+        <v>82</v>
+      </c>
+      <c r="U4" s="17" t="s">
+        <v>83</v>
+      </c>
+      <c r="V4" s="17" t="s">
+        <v>84</v>
+      </c>
+      <c r="W4" s="17" t="s">
+        <v>85</v>
+      </c>
+      <c r="X4" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y4" s="17" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z4" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA4" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="AC4" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AD4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="N4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="O4" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="P4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="R4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="T4" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="U4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="V4" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="W4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="X4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="Y4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA4" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="AB4" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="AC4" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="AD4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AE4" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="AF4" s="2" t="s">
-        <v>86</v>
+      <c r="AE4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AF4" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="AG4" s="2" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C5" s="7">
         <v>79.344999999999999</v>
@@ -960,10 +963,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C6" s="7">
         <v>111.977</v>
@@ -1062,10 +1065,10 @@
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C7" s="7">
         <v>17862.6286</v>
@@ -1164,10 +1167,10 @@
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C8" s="7">
         <v>412.39299999999997</v>
@@ -1266,10 +1269,10 @@
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C9" s="7">
         <v>1627.778</v>
@@ -1368,10 +1371,10 @@
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C10" s="7">
         <v>6720.3829999999998</v>
@@ -1470,10 +1473,10 @@
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>32</v>
+        <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C11" s="7">
         <v>726.447</v>
@@ -1572,10 +1575,10 @@
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C12" s="7">
         <v>103.628</v>
@@ -1674,10 +1677,10 @@
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C13" s="7">
         <v>1012.841</v>
@@ -1776,10 +1779,10 @@
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C14" s="7">
         <v>168.62700000000001</v>
@@ -1878,10 +1881,10 @@
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C15" s="7">
         <v>1003.6319999999999</v>
@@ -1980,10 +1983,10 @@
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>37</v>
+        <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C16" s="7">
         <v>658.875</v>
@@ -2082,10 +2085,10 @@
     </row>
     <row r="17" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2184,10 +2187,10 @@
     </row>
     <row r="18" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="C18" s="7">
         <v>285.70100000000002</v>
@@ -2286,10 +2289,10 @@
     </row>
     <row r="19" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>82</v>
+        <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C19" s="7">
         <v>0.92400000000000004</v>
@@ -2388,10 +2391,10 @@
     </row>
     <row r="20" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C20" s="7">
         <v>177.91200000000001</v>
@@ -2490,10 +2493,10 @@
     </row>
     <row r="21" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C21" s="7">
         <v>480.06200000000001</v>
@@ -2592,10 +2595,10 @@
     </row>
     <row r="22" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C22" s="7">
         <v>189.88</v>
@@ -2694,10 +2697,10 @@
     </row>
     <row r="23" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C23" s="7">
         <v>132.63200000000001</v>
@@ -2796,10 +2799,10 @@
     </row>
     <row r="24" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C24" s="7">
         <v>969.726</v>
@@ -2898,10 +2901,10 @@
     </row>
     <row r="25" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C25" s="7">
         <v>22.186</v>
@@ -3000,10 +3003,10 @@
     </row>
     <row r="26" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
-        <v>46</v>
+        <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C26" s="7">
         <v>1857.184</v>
@@ -3102,10 +3105,10 @@
     </row>
     <row r="27" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
-        <v>47</v>
+        <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C27" s="7">
         <v>143.274</v>
@@ -3204,10 +3207,10 @@
     </row>
     <row r="28" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C28" s="7">
         <v>12212.387000000001</v>
@@ -3306,10 +3309,10 @@
     </row>
     <row r="29" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C29" s="7">
         <v>2409.8850000000002</v>
@@ -3408,10 +3411,10 @@
     </row>
     <row r="30" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C30" s="7">
         <v>4334.3630000000003</v>
@@ -3510,10 +3513,10 @@
     </row>
     <row r="31" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C31" s="7">
         <v>1479.296</v>
@@ -3612,10 +3615,10 @@
     </row>
     <row r="32" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C32" s="7">
         <v>2017.5640000000001</v>
@@ -3714,10 +3717,10 @@
     </row>
     <row r="33" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C33" s="7">
         <v>1.536</v>
@@ -3816,10 +3819,10 @@
     </row>
     <row r="34" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C34" s="7">
         <v>849.45100000000002</v>
@@ -3918,10 +3921,10 @@
     </row>
     <row r="35" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C35" s="7">
         <v>1.708</v>
@@ -4020,10 +4023,10 @@
     </row>
     <row r="36" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
-        <v>55</v>
+        <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C36" s="7">
         <v>14.855</v>
@@ -4122,10 +4125,10 @@
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
-        <v>56</v>
+        <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C37" s="7">
         <v>2802.9720000000002</v>
@@ -4224,10 +4227,10 @@
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C38" s="7">
         <v>54.46</v>
@@ -4326,10 +4329,10 @@
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C39" s="7">
         <v>0.36649999999999999</v>
@@ -4428,10 +4431,10 @@
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
-        <v>59</v>
+        <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C40" s="7">
         <v>1427.002</v>
@@ -4530,10 +4533,10 @@
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="4" t="s">
         <v>60</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>90</v>
       </c>
       <c r="C41" s="7">
         <v>1510.6869999999999</v>
@@ -4632,10 +4635,10 @@
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C42" s="7">
         <v>15.574</v>
@@ -4734,10 +4737,10 @@
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C43" s="7">
         <v>1649.4010000000001</v>
@@ -4836,10 +4839,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>84</v>
+        <v>56</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C44" s="7">
         <v>98.332999999999998</v>
@@ -4938,10 +4941,10 @@
     </row>
     <row r="45" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -5040,10 +5043,10 @@
     </row>
     <row r="46" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C46" s="7">
         <v>3526.2449999999999</v>
@@ -5142,10 +5145,10 @@
     </row>
     <row r="47" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C47" s="7">
         <v>3.5499999999999997E-2</v>
@@ -5244,10 +5247,10 @@
     </row>
     <row r="48" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C48" s="7">
         <v>419.916</v>
@@ -5346,10 +5349,10 @@
     </row>
     <row r="49" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C49" s="7">
         <v>1.69</v>
@@ -5448,10 +5451,10 @@
     </row>
     <row r="50" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C50" s="7">
         <v>129.98699999999999</v>
@@ -5550,10 +5553,10 @@
     </row>
     <row r="51" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C51" s="7">
         <v>86.783000000000001</v>
@@ -5652,10 +5655,10 @@
     </row>
     <row r="52" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C52" s="7">
         <v>33.203000000000003</v>
@@ -5754,10 +5757,10 @@
     </row>
     <row r="53" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C53" s="7">
         <v>433.017</v>
@@ -5856,10 +5859,10 @@
     </row>
     <row r="54" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C54" s="10">
         <v>180.80799999999999</v>
@@ -5958,10 +5961,10 @@
     </row>
     <row r="55" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A55" s="3" t="s">
-        <v>73</v>
+        <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C55" s="10">
         <v>11.581</v>
@@ -6060,10 +6063,10 @@
     </row>
     <row r="56" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A56" s="3" t="s">
-        <v>74</v>
+        <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C56" s="10">
         <v>2085.009</v>
@@ -6162,10 +6165,10 @@
     </row>
     <row r="57" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>75</v>
+        <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C57" s="10">
         <v>132.08699999999999</v>
@@ -6264,10 +6267,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C58" s="10">
         <v>1146.288</v>
@@ -6366,10 +6369,10 @@
     </row>
     <row r="59" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
-        <v>76</v>
+        <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="C59" s="10">
         <v>72.500200000000007</v>
@@ -6497,7 +6500,7 @@
     </row>
     <row r="61" spans="1:33" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="11" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="B61" s="12"/>
       <c r="C61" s="13">

--- a/datasets/1e - Exports - crop year.xlsx
+++ b/datasets/1e - Exports - crop year.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Drive\Data analysis projects\Coffee_production_consumption\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E292053C-0665-47AB-B473-1A2A65E7906C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7489C79C-0DE1-4780-AE46-5BEE11A0B109}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,9 +210,6 @@
     <t>Democratic Republic of Congo</t>
   </si>
   <si>
-    <t>Lao People's Democratic Republic</t>
-  </si>
-  <si>
     <t>Group</t>
   </si>
   <si>
@@ -325,6 +322,9 @@
   </si>
   <si>
     <t>2019</t>
+  </si>
+  <si>
+    <t>Laos</t>
   </si>
 </sst>
 </file>
@@ -730,7 +730,7 @@
       <pane xSplit="2" ySplit="4" topLeftCell="C38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="C4" sqref="C4:AF4"/>
+      <selection pane="bottomRight" activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -760,103 +760,103 @@
     </row>
     <row r="4" spans="1:33" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C4" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="D4" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="E4" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E4" s="17" t="s">
+      <c r="F4" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="G4" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="G4" s="17" t="s">
+      <c r="H4" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="H4" s="17" t="s">
+      <c r="I4" s="17" t="s">
         <v>70</v>
       </c>
-      <c r="I4" s="17" t="s">
+      <c r="J4" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="K4" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="K4" s="17" t="s">
+      <c r="L4" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="L4" s="17" t="s">
+      <c r="M4" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="N4" s="17" t="s">
         <v>75</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="O4" s="17" t="s">
         <v>76</v>
       </c>
-      <c r="O4" s="17" t="s">
+      <c r="P4" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="P4" s="17" t="s">
+      <c r="Q4" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="Q4" s="17" t="s">
+      <c r="R4" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="R4" s="17" t="s">
+      <c r="S4" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="S4" s="17" t="s">
+      <c r="T4" s="17" t="s">
         <v>81</v>
       </c>
-      <c r="T4" s="17" t="s">
+      <c r="U4" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="U4" s="17" t="s">
+      <c r="V4" s="17" t="s">
         <v>83</v>
       </c>
-      <c r="V4" s="17" t="s">
+      <c r="W4" s="17" t="s">
         <v>84</v>
       </c>
-      <c r="W4" s="17" t="s">
+      <c r="X4" s="17" t="s">
         <v>85</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="Y4" s="17" t="s">
         <v>86</v>
       </c>
-      <c r="Y4" s="17" t="s">
+      <c r="Z4" s="17" t="s">
         <v>87</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="AA4" s="17" t="s">
         <v>88</v>
       </c>
-      <c r="AA4" s="17" t="s">
+      <c r="AB4" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AC4" s="17" t="s">
         <v>90</v>
       </c>
-      <c r="AC4" s="17" t="s">
+      <c r="AD4" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="AD4" s="17" t="s">
+      <c r="AE4" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="AE4" s="17" t="s">
+      <c r="AF4" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="AF4" s="17" t="s">
-        <v>94</v>
-      </c>
       <c r="AG4" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.2">
@@ -864,7 +864,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C5" s="7">
         <v>79.344999999999999</v>
@@ -963,10 +963,10 @@
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C6" s="7">
         <v>111.977</v>
@@ -1068,7 +1068,7 @@
         <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C7" s="7">
         <v>17862.6286</v>
@@ -1170,7 +1170,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C8" s="7">
         <v>412.39299999999997</v>
@@ -1272,7 +1272,7 @@
         <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C9" s="7">
         <v>1627.778</v>
@@ -1374,7 +1374,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10" s="7">
         <v>6720.3829999999998</v>
@@ -1476,7 +1476,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C11" s="7">
         <v>726.447</v>
@@ -1578,7 +1578,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C12" s="7">
         <v>103.628</v>
@@ -1680,7 +1680,7 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C13" s="7">
         <v>1012.841</v>
@@ -1782,7 +1782,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C14" s="7">
         <v>168.62700000000001</v>
@@ -1884,7 +1884,7 @@
         <v>12</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C15" s="7">
         <v>1003.6319999999999</v>
@@ -1986,7 +1986,7 @@
         <v>13</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C16" s="7">
         <v>658.875</v>
@@ -2088,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C17" s="7">
         <v>0</v>
@@ -2190,7 +2190,7 @@
         <v>15</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C18" s="7">
         <v>285.70100000000002</v>
@@ -2292,7 +2292,7 @@
         <v>54</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C19" s="7">
         <v>0.92400000000000004</v>
@@ -2394,7 +2394,7 @@
         <v>16</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C20" s="7">
         <v>177.91200000000001</v>
@@ -2496,7 +2496,7 @@
         <v>17</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7">
         <v>480.06200000000001</v>
@@ -2598,7 +2598,7 @@
         <v>18</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C22" s="7">
         <v>189.88</v>
@@ -2700,7 +2700,7 @@
         <v>19</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C23" s="7">
         <v>132.63200000000001</v>
@@ -2802,7 +2802,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C24" s="7">
         <v>969.726</v>
@@ -2904,7 +2904,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C25" s="7">
         <v>22.186</v>
@@ -3006,7 +3006,7 @@
         <v>22</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C26" s="7">
         <v>1857.184</v>
@@ -3108,7 +3108,7 @@
         <v>23</v>
       </c>
       <c r="B27" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C27" s="7">
         <v>143.274</v>
@@ -3210,7 +3210,7 @@
         <v>24</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C28" s="7">
         <v>12212.387000000001</v>
@@ -3312,7 +3312,7 @@
         <v>25</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C29" s="7">
         <v>2409.8850000000002</v>
@@ -3414,7 +3414,7 @@
         <v>26</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="7">
         <v>4334.3630000000003</v>
@@ -3516,7 +3516,7 @@
         <v>55</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C31" s="7">
         <v>1479.296</v>
@@ -3618,7 +3618,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C32" s="7">
         <v>2017.5640000000001</v>
@@ -3720,7 +3720,7 @@
         <v>28</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C33" s="7">
         <v>1.536</v>
@@ -3822,7 +3822,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="7">
         <v>849.45100000000002</v>
@@ -3924,7 +3924,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C35" s="7">
         <v>1.708</v>
@@ -4026,7 +4026,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C36" s="7">
         <v>14.855</v>
@@ -4128,7 +4128,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C37" s="7">
         <v>2802.9720000000002</v>
@@ -4230,7 +4230,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C38" s="7">
         <v>54.46</v>
@@ -4332,7 +4332,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" s="7">
         <v>0.36649999999999999</v>
@@ -4434,7 +4434,7 @@
         <v>35</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C40" s="7">
         <v>1427.002</v>
@@ -4536,7 +4536,7 @@
         <v>36</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C41" s="7">
         <v>1510.6869999999999</v>
@@ -4638,7 +4638,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C42" s="7">
         <v>15.574</v>
@@ -4740,7 +4740,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C43" s="7">
         <v>1649.4010000000001</v>
@@ -4839,10 +4839,10 @@
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C44" s="7">
         <v>98.332999999999998</v>
@@ -4944,7 +4944,7 @@
         <v>39</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C45" s="7">
         <v>0</v>
@@ -5046,7 +5046,7 @@
         <v>40</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C46" s="7">
         <v>3526.2449999999999</v>
@@ -5148,7 +5148,7 @@
         <v>41</v>
       </c>
       <c r="B47" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C47" s="7">
         <v>3.5499999999999997E-2</v>
@@ -5250,7 +5250,7 @@
         <v>42</v>
       </c>
       <c r="B48" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C48" s="7">
         <v>419.916</v>
@@ -5352,7 +5352,7 @@
         <v>43</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="7">
         <v>1.69</v>
@@ -5454,7 +5454,7 @@
         <v>44</v>
       </c>
       <c r="B50" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C50" s="7">
         <v>129.98699999999999</v>
@@ -5556,7 +5556,7 @@
         <v>45</v>
       </c>
       <c r="B51" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C51" s="7">
         <v>86.783000000000001</v>
@@ -5658,7 +5658,7 @@
         <v>46</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C52" s="7">
         <v>33.203000000000003</v>
@@ -5760,7 +5760,7 @@
         <v>47</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C53" s="7">
         <v>433.017</v>
@@ -5862,7 +5862,7 @@
         <v>48</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C54" s="10">
         <v>180.80799999999999</v>
@@ -5964,7 +5964,7 @@
         <v>49</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C55" s="10">
         <v>11.581</v>
@@ -6066,7 +6066,7 @@
         <v>50</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C56" s="10">
         <v>2085.009</v>
@@ -6168,7 +6168,7 @@
         <v>51</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C57" s="10">
         <v>132.08699999999999</v>
@@ -6267,10 +6267,10 @@
     </row>
     <row r="58" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="10">
         <v>1146.288</v>
@@ -6372,7 +6372,7 @@
         <v>52</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C59" s="10">
         <v>72.500200000000007</v>
